--- a/biology/Zoologie/Cormoran_de_Brandt/Cormoran_de_Brandt.xlsx
+++ b/biology/Zoologie/Cormoran_de_Brandt/Cormoran_de_Brandt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalacrocorax penicillatus
 Le Cormoran de Brandt (Phalacrocorax penicillatus)  est une espèce d'oiseaux de mer de la famille des cormorans vivant sur la côte Pacifique de l'Amérique du Nord.
@@ -513,7 +525,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cormoran de Brandt s'alimente soit isolément, soit en troupes et s'adaptent dans le choix de leurs proies et leur mode de pêche. Il se nourrit de petits poissons vivant près de la surface qu'il attrape, comme tous les cormorans, en les poursuivant en plongée en battant des pieds. Ses proies sont souvent les poissons les plus abondants de l'endroit: sur les côtes du centre de la Californie, il se nourrit essentiellement de poissons du genre Sebastes, mais au large de la Colombie-Britannique, il consomme surtout le hareng du Pacifique (Clupea pallasii). On l'a observé se nourrissant à des profondeurs de plus de 13 mètres.
 </t>
@@ -544,7 +558,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de la saison de reproduction, les adultes ont une tache bleue sur la gorge. Cette espèce niche sur le sol ou sur des affleurements rocheux.
 </t>
